--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8378114757655399</v>
+        <v>0.8397313451970363</v>
       </c>
       <c r="C2">
-        <v>1.171348635000408</v>
+        <v>1.177508807361574</v>
       </c>
       <c r="D2">
-        <v>1.363570368815664</v>
+        <v>1.356451150188942</v>
       </c>
       <c r="E2">
-        <v>1.472915763396205</v>
+        <v>1.472823318998768</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7491810824101001</v>
+        <v>0.7676640602148203</v>
       </c>
       <c r="C3">
-        <v>1.066070747474406</v>
+        <v>1.087433508580475</v>
       </c>
       <c r="D3">
-        <v>1.277462781813832</v>
+        <v>1.276233810667159</v>
       </c>
       <c r="E3">
-        <v>1.404528090164032</v>
+        <v>1.409469658895177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4807543257982417</v>
+        <v>0.4743663168598267</v>
       </c>
       <c r="C4">
-        <v>0.6902789495963499</v>
+        <v>0.7013843045742871</v>
       </c>
       <c r="D4">
-        <v>0.9330715894196859</v>
+        <v>0.9202580287282726</v>
       </c>
       <c r="E4">
-        <v>1.10117588893987</v>
+        <v>1.082814381615641</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3616861622716404</v>
+        <v>0.364676707402917</v>
       </c>
       <c r="C5">
-        <v>0.4215010993672665</v>
+        <v>0.4306945007720887</v>
       </c>
       <c r="D5">
-        <v>0.4309440830318397</v>
+        <v>0.4247129094724361</v>
       </c>
       <c r="E5">
-        <v>0.4031076710950038</v>
+        <v>0.3980077702589124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2812701519277127</v>
+        <v>0.2923816395688805</v>
       </c>
       <c r="C6">
-        <v>0.306717625328037</v>
+        <v>0.3093899654033974</v>
       </c>
       <c r="D6">
-        <v>0.2792934079750101</v>
+        <v>0.2837220892666605</v>
       </c>
       <c r="E6">
-        <v>0.2359782089615003</v>
+        <v>0.2390097767754088</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.3212273244754845</v>
+        <v>0.328609636718072</v>
       </c>
       <c r="C7">
-        <v>0.3748844675888568</v>
+        <v>0.3842135572168609</v>
       </c>
       <c r="D7">
-        <v>0.3972063367642816</v>
+        <v>0.401576885974789</v>
       </c>
       <c r="E7">
-        <v>0.3712436033362387</v>
+        <v>0.3706086512129885</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.195381407137015</v>
+        <v>0.1935278923803382</v>
       </c>
       <c r="C8">
-        <v>0.2776848453639944</v>
+        <v>0.2819893251920724</v>
       </c>
       <c r="D8">
-        <v>0.3055990320860469</v>
+        <v>0.3038021567545686</v>
       </c>
       <c r="E8">
-        <v>0.3089058767052</v>
+        <v>0.3085576887316853</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.572720074435875</v>
+        <v>0.5673291140965486</v>
       </c>
       <c r="C9">
-        <v>0.6507159301449658</v>
+        <v>0.6558191130571009</v>
       </c>
       <c r="D9">
-        <v>0.5621988417056959</v>
+        <v>0.5641100114228719</v>
       </c>
       <c r="E9">
-        <v>0.4743711286138547</v>
+        <v>0.473483256811177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4308355960035688</v>
+        <v>0.4268077567395996</v>
       </c>
       <c r="C10">
-        <v>0.7183171335656808</v>
+        <v>0.7053690129767466</v>
       </c>
       <c r="D10">
-        <v>1.017761257797655</v>
+        <v>1.011569275504135</v>
       </c>
       <c r="E10">
-        <v>1.289677572814649</v>
+        <v>1.275327798525587</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.371037154377327</v>
+        <v>0.3745725955835346</v>
       </c>
       <c r="C11">
-        <v>0.6245134516545578</v>
+        <v>0.6115985128189595</v>
       </c>
       <c r="D11">
-        <v>0.9148357361325565</v>
+        <v>0.9020829115585566</v>
       </c>
       <c r="E11">
-        <v>1.16861995391047</v>
+        <v>1.162935609077621</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.09743285495036862</v>
+        <v>0.09205845841638884</v>
       </c>
       <c r="C12">
-        <v>0.1810847777529358</v>
+        <v>0.1751609156095072</v>
       </c>
       <c r="D12">
-        <v>0.4014163224488638</v>
+        <v>0.391530093490966</v>
       </c>
       <c r="E12">
-        <v>0.6281160816728568</v>
+        <v>0.614786416514029</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.3326875178591489</v>
+        <v>0.3250309684184554</v>
       </c>
       <c r="C13">
-        <v>0.5641370150958281</v>
+        <v>0.5463631393984159</v>
       </c>
       <c r="D13">
-        <v>0.8540697271109551</v>
+        <v>0.8449974102226457</v>
       </c>
       <c r="E13">
-        <v>1.136171362564151</v>
+        <v>1.115428100200711</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8397313451970363</v>
+        <v>0.936061968566015</v>
       </c>
       <c r="C2">
-        <v>1.177508807361574</v>
+        <v>1.313498814969672</v>
       </c>
       <c r="D2">
-        <v>1.356451150188942</v>
+        <v>1.487638583328825</v>
       </c>
       <c r="E2">
-        <v>1.472823318998768</v>
+        <v>1.594702201724019</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7676640602148203</v>
+        <v>0.8665389055668421</v>
       </c>
       <c r="C3">
-        <v>1.087433508580475</v>
+        <v>1.225690816709213</v>
       </c>
       <c r="D3">
-        <v>1.276233810667159</v>
+        <v>1.408310378582805</v>
       </c>
       <c r="E3">
-        <v>1.409469658895177</v>
+        <v>1.531761101935835</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4743663168598267</v>
+        <v>0.5220626417996851</v>
       </c>
       <c r="C4">
-        <v>0.7013843045742871</v>
+        <v>0.7754902945783939</v>
       </c>
       <c r="D4">
-        <v>0.9202580287282726</v>
+        <v>1.005622767603824</v>
       </c>
       <c r="E4">
-        <v>1.082814381615641</v>
+        <v>1.170512505105007</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.364676707402917</v>
+        <v>0.3813872425663433</v>
       </c>
       <c r="C5">
-        <v>0.4306945007720887</v>
+        <v>0.449441296965801</v>
       </c>
       <c r="D5">
-        <v>0.4247129094724361</v>
+        <v>0.4406486889174661</v>
       </c>
       <c r="E5">
-        <v>0.3980077702589124</v>
+        <v>0.4105244968136729</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2923816395688805</v>
+        <v>0.3079900402865606</v>
       </c>
       <c r="C6">
-        <v>0.3093899654033974</v>
+        <v>0.3270940533934479</v>
       </c>
       <c r="D6">
-        <v>0.2837220892666605</v>
+        <v>0.2990603850972823</v>
       </c>
       <c r="E6">
-        <v>0.2390097767754088</v>
+        <v>0.2511295960563111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.328609636718072</v>
+        <v>0.343939944676575</v>
       </c>
       <c r="C7">
-        <v>0.3842135572168609</v>
+        <v>0.4013754906414626</v>
       </c>
       <c r="D7">
-        <v>0.401576885974789</v>
+        <v>0.4173120270607643</v>
       </c>
       <c r="E7">
-        <v>0.3706086512129885</v>
+        <v>0.3828568701346464</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1935278923803382</v>
+        <v>0.2001018367653793</v>
       </c>
       <c r="C8">
-        <v>0.2819893251920724</v>
+        <v>0.2902973021720563</v>
       </c>
       <c r="D8">
-        <v>0.3038021567545686</v>
+        <v>0.3108452978446444</v>
       </c>
       <c r="E8">
-        <v>0.3085576887316853</v>
+        <v>0.3144157603848184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.5673291140965486</v>
+        <v>0.5951509372527959</v>
       </c>
       <c r="C9">
-        <v>0.6558191130571009</v>
+        <v>0.688065013977329</v>
       </c>
       <c r="D9">
-        <v>0.5641100114228719</v>
+        <v>0.5882943898208607</v>
       </c>
       <c r="E9">
-        <v>0.473483256811177</v>
+        <v>0.4907369594154016</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4268077567395996</v>
+        <v>0.4861278178718842</v>
       </c>
       <c r="C10">
-        <v>0.7053690129767466</v>
+        <v>0.793999102161678</v>
       </c>
       <c r="D10">
-        <v>1.011569275504135</v>
+        <v>1.107204519682487</v>
       </c>
       <c r="E10">
-        <v>1.275327798525587</v>
+        <v>1.371529122152553</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.3745725955835346</v>
+        <v>0.42736632153673</v>
       </c>
       <c r="C11">
-        <v>0.6115985128189595</v>
+        <v>0.6895836588783807</v>
       </c>
       <c r="D11">
-        <v>0.9020829115585566</v>
+        <v>0.988328355728557</v>
       </c>
       <c r="E11">
-        <v>1.162935609077621</v>
+        <v>1.251478324715245</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.09205845841638884</v>
+        <v>0.1055451499878177</v>
       </c>
       <c r="C12">
-        <v>0.1751609156095072</v>
+        <v>0.1984769673372521</v>
       </c>
       <c r="D12">
-        <v>0.391530093490966</v>
+        <v>0.430288162070488</v>
       </c>
       <c r="E12">
-        <v>0.614786416514029</v>
+        <v>0.6630645759324548</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.3250309684184554</v>
+        <v>0.3713265864090526</v>
       </c>
       <c r="C13">
-        <v>0.5463631393984159</v>
+        <v>0.6163823604628738</v>
       </c>
       <c r="D13">
-        <v>0.8449974102226457</v>
+        <v>0.9258688481323134</v>
       </c>
       <c r="E13">
-        <v>1.115428100200711</v>
+        <v>1.200349245239656</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV.xlsx
@@ -567,7 +567,7 @@
         <v>0.430288162070488</v>
       </c>
       <c r="E12">
-        <v>0.6630645759324548</v>
+        <v>0.663064575932455</v>
       </c>
     </row>
     <row r="13" spans="1:5">
